--- a/1. CM Introduction/CMToolMapping.xlsx
+++ b/1. CM Introduction/CMToolMapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1994022ffadd371a/GitHub/config-management-May-june/1. CM Introduction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{387C9247-55B3-E44C-BAE6-CE43EB933DA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{387C9247-55B3-E44C-BAE6-CE43EB933DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5D0F23D-B721-A64A-8D3C-7AA0A64E0537}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{8F1FC08F-9AE2-0F46-A925-FD1AA681E97B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>S.No.</t>
   </si>
@@ -82,6 +82,63 @@
   </si>
   <si>
     <t>Playbooks (.yaml/.yml)</t>
+  </si>
+  <si>
+    <t>Client/Agent</t>
+  </si>
+  <si>
+    <t>Chef-client</t>
+  </si>
+  <si>
+    <t>Puppet Agent</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Pull</t>
+  </si>
+  <si>
+    <t>Push</t>
+  </si>
+  <si>
+    <t>Communication mode (default)</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>pem file</t>
+  </si>
+  <si>
+    <t>Certificate (SSL)</t>
+  </si>
+  <si>
+    <t>SSH Key</t>
+  </si>
+  <si>
+    <t>System Properties</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Facts</t>
+  </si>
+  <si>
+    <t>Utility to collect System Properties</t>
+  </si>
+  <si>
+    <t>OHAI</t>
+  </si>
+  <si>
+    <t>Facter</t>
+  </si>
+  <si>
+    <t>SetUp (Module)</t>
+  </si>
+  <si>
+    <t>Marketplace (Community)</t>
   </si>
 </sst>
 </file>
@@ -467,13 +524,13 @@
   <dimension ref="B3:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
@@ -568,52 +625,94 @@
       <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>10</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>

--- a/1. CM Introduction/CMToolMapping.xlsx
+++ b/1. CM Introduction/CMToolMapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1994022ffadd371a/GitHub/config-management-May-june/1. CM Introduction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{387C9247-55B3-E44C-BAE6-CE43EB933DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5D0F23D-B721-A64A-8D3C-7AA0A64E0537}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{387C9247-55B3-E44C-BAE6-CE43EB933DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A86341D3-6DB1-8441-B9B4-F2E03376B3E4}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{8F1FC08F-9AE2-0F46-A925-FD1AA681E97B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>S.No.</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>Marketplace (Community)</t>
+  </si>
+  <si>
+    <t>Chef Supermarket</t>
+  </si>
+  <si>
+    <t>Puppet Forge</t>
+  </si>
+  <si>
+    <t>Ansible Galaxy</t>
   </si>
 </sst>
 </file>
@@ -524,15 +533,15 @@
   <dimension ref="B3:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -713,9 +722,15 @@
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1. CM Introduction/CMToolMapping.xlsx
+++ b/1. CM Introduction/CMToolMapping.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1994022ffadd371a/GitHub/config-management-May-june/1. CM Introduction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{387C9247-55B3-E44C-BAE6-CE43EB933DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A86341D3-6DB1-8441-B9B4-F2E03376B3E4}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{387C9247-55B3-E44C-BAE6-CE43EB933DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DB69BF5-2D44-9A43-85D8-EA0875A91CAE}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{8F1FC08F-9AE2-0F46-A925-FD1AA681E97B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>S.No.</t>
   </si>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t>Ansible Galaxy</t>
+  </si>
+  <si>
+    <t>Can the Server manage itself?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -204,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,6 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3ACBD49-CDC3-9B45-9C6D-3660FBCB4F07}">
-  <dimension ref="B3:F13"/>
+  <dimension ref="B3:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,6 +742,30 @@
         <v>40</v>
       </c>
     </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="4">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1. CM Introduction/CMToolMapping.xlsx
+++ b/1. CM Introduction/CMToolMapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1994022ffadd371a/GitHub/config-management-May-june/1. CM Introduction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{387C9247-55B3-E44C-BAE6-CE43EB933DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DB69BF5-2D44-9A43-85D8-EA0875A91CAE}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{387C9247-55B3-E44C-BAE6-CE43EB933DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25ACF1A3-ED54-B34D-AE6A-AC93CF4C1C28}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{8F1FC08F-9AE2-0F46-A925-FD1AA681E97B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>S.No.</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Secrets Manager</t>
+  </si>
+  <si>
+    <t>Data Bags</t>
+  </si>
+  <si>
+    <t>Hiera</t>
+  </si>
+  <si>
+    <t>Vault</t>
   </si>
 </sst>
 </file>
@@ -213,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,7 +237,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +554,7 @@
   <dimension ref="B3:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,11 +771,21 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="B15" s="4">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1. CM Introduction/CMToolMapping.xlsx
+++ b/1. CM Introduction/CMToolMapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1994022ffadd371a/GitHub/config-management-May-june/1. CM Introduction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{387C9247-55B3-E44C-BAE6-CE43EB933DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25ACF1A3-ED54-B34D-AE6A-AC93CF4C1C28}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{387C9247-55B3-E44C-BAE6-CE43EB933DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A54DDB5-161A-B048-95FC-E2776C4C4177}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{8F1FC08F-9AE2-0F46-A925-FD1AA681E97B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>S.No.</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>Vault</t>
+  </si>
+  <si>
+    <t>Execution start point</t>
+  </si>
+  <si>
+    <t>default.rb</t>
+  </si>
+  <si>
+    <t>init.pp</t>
+  </si>
+  <si>
+    <t>main.yml</t>
   </si>
 </sst>
 </file>
@@ -551,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3ACBD49-CDC3-9B45-9C6D-3660FBCB4F07}">
-  <dimension ref="B3:F15"/>
+  <dimension ref="B3:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -787,6 +799,23 @@
         <v>47</v>
       </c>
     </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="4">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1. CM Introduction/CMToolMapping.xlsx
+++ b/1. CM Introduction/CMToolMapping.xlsx
@@ -566,7 +566,7 @@
   <dimension ref="B3:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/1. CM Introduction/CMToolMapping.xlsx
+++ b/1. CM Introduction/CMToolMapping.xlsx
@@ -566,7 +566,7 @@
   <dimension ref="B3:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
